--- a/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>174.8741406798363</v>
+        <v>113.509012067318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02913112455103053</v>
+        <v>0.01890871432072597</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9985007496251874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5032482653344436</v>
+        <v>0.7706133777407715</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>113.509012067318</v>
+        <v>161.5198720018069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01890871432072597</v>
+        <v>0.02690652540426568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9985007496251874</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7706133777407715</v>
+        <v>0.815259089647516</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/SVM/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>161.5198720018069</v>
+        <v>49.62909959952037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02690652540426568</v>
+        <v>0.008267382908465829</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9643511577544561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.815259089647516</v>
+        <v>0.8827245351096309</v>
       </c>
     </row>
   </sheetData>
